--- a/biology/Histoire de la zoologie et de la botanique/Ernst_Evald_Bergroth/Ernst_Evald_Bergroth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_Evald_Bergroth/Ernst_Evald_Bergroth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Evald (ou Ewald) Bergroth est un médecin et un entomologiste suédois de Finlande, né le 1er avril 1857 à Jakobstad et mort le 22 novembre 1925 à Ekenäs.
 </t>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce médecin se spécialise dans les hétéroptères et les diptères. Il vit aux États-Unis de 1906 à 1911.
-Sources
-Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce médecin se spécialise dans les hétéroptères et les diptères. Il vit aux États-Unis de 1906 à 1911.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ernst_Evald_Bergroth</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ernst_Evald_Bergroth</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
         </is>
       </c>
     </row>
